--- a/anexo_PP.xlsx
+++ b/anexo_PP.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_DEV\super-herramientas-redles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\emore\Desktop\super-herramientas-redles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975FB1B9-216A-44DD-AA65-E7E439585C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="930" windowWidth="15495" windowHeight="10185" xr2:uid="{2AF8BB47-AE8A-4EA3-8A89-70E27AFFD6CC}"/>
+    <workbookView xWindow="825" yWindow="930" windowWidth="15495" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Explicacion" sheetId="3" r:id="rId2"/>
     <sheet name="Tablas SUPA" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="139">
   <si>
     <t>nroformulario</t>
   </si>
@@ -287,36 +286,15 @@
     <t>NO TENES ACCESO</t>
   </si>
   <si>
-    <t>CONSUMIDOR FINAL</t>
-  </si>
-  <si>
     <t>Producción</t>
   </si>
   <si>
-    <t xml:space="preserve"> pizza en forma de cono</t>
-  </si>
-  <si>
-    <t>ELABORACIÓN DE PRODUCTOS ALIMENTICIOS N.C.P</t>
-  </si>
-  <si>
     <t>NO ESPECIFICA</t>
   </si>
   <si>
-    <t xml:space="preserve"> re vendedores </t>
-  </si>
-  <si>
     <t>PRESTADO</t>
   </si>
   <si>
-    <t>FACEBOOK</t>
-  </si>
-  <si>
-    <t>PAGO DE TERCEROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercadopago </t>
-  </si>
-  <si>
     <t>Efectores. Proyectos Productivos. Alta</t>
   </si>
   <si>
@@ -401,50 +379,89 @@
     <t>Aclaracion</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89999084444715716"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>palacionestor2008@hotmail.com</t>
-    </r>
-  </si>
-  <si>
     <t>Si el domicilio fiscal es igual al legal, va "SI" o "NO"</t>
   </si>
   <si>
-    <t>20340917112</t>
-  </si>
-  <si>
-    <t>2013830</t>
-  </si>
-  <si>
-    <t>1822</t>
-  </si>
-  <si>
     <t>Formulario del PP</t>
   </si>
   <si>
     <t>CUIT del referente del PP</t>
   </si>
   <si>
+    <t>2014000</t>
+  </si>
+  <si>
+    <t>20306025601</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>24067706</t>
+  </si>
+  <si>
+    <t>1124067706</t>
+  </si>
+  <si>
+    <t>juancabral_83@hotmail.com</t>
+  </si>
+  <si>
+    <t>produccion insdustrial</t>
+  </si>
+  <si>
+    <t>RECUPERACION DE MATERIALES Y DESECHOS NO METALICOS</t>
+  </si>
+  <si>
+    <t>EMPRESAS DE COLECTORAS DE PLASTICO PARA LA INDUSTRIA</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Cooperativa de trabajo Universitaria Fecovima</t>
+  </si>
+  <si>
+    <t>1000 kg semanales</t>
+  </si>
+  <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Observatorio integral de derechos humanos</t>
+  </si>
+  <si>
+    <t>PUNTO INDUSTRIAL DE ACOPIO</t>
+  </si>
+  <si>
+    <t>FABRICANTES</t>
+  </si>
+  <si>
+    <t>2/9</t>
+  </si>
+  <si>
+    <t>muchos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot; &quot;mmm&quot; &quot;yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,9 +552,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="2" tint="-0.89999084444715716"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -605,10 +630,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,9 +703,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,7 +720,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -749,7 +780,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -801,7 +832,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1002,14 +1033,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83B7D3A-2ED7-4E7F-B108-DE0D7963276D}">
-  <dimension ref="A1:CA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CA3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1329,21 +1360,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>79</v>
@@ -1351,47 +1382,47 @@
       <c r="G2" s="26">
         <v>1</v>
       </c>
-      <c r="H2" s="26">
-        <v>1</v>
-      </c>
-      <c r="I2" s="26">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1">
-        <v>57244729</v>
-      </c>
-      <c r="L2" s="26">
-        <v>1</v>
+      <c r="H2" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="M2" s="1">
         <v>4</v>
       </c>
-      <c r="N2" s="1">
-        <v>1121946125</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>121</v>
+      <c r="N2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>125</v>
       </c>
       <c r="P2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>81</v>
@@ -1403,7 +1434,7 @@
         <v>79</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>81</v>
@@ -1412,13 +1443,13 @@
         <v>81</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>81</v>
@@ -1436,7 +1467,7 @@
         <v>79</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>79</v>
@@ -1445,35 +1476,37 @@
         <v>80</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP2" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="AQ2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>80</v>
+      <c r="AU2" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>80</v>
@@ -1494,10 +1527,10 @@
         <v>80</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>80</v>
@@ -1515,74 +1548,78 @@
         <v>80</v>
       </c>
       <c r="BK2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="BL2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="BO2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS2" s="1">
-        <v>10</v>
+        <v>135</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="BT2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BU2" s="1">
-        <v>1</v>
+      <c r="BU2" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="BV2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="BW2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BX2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="CA2" s="1" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="palacionestor2008@hotmail.com" xr:uid="{9BF2C04A-3D6E-49DB-9E52-96000F234FBB}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF08442-4392-414C-AD75-C67935663E78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
@@ -1590,26 +1627,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>126</v>
+      <c r="B2" s="28" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>127</v>
+      <c r="B3" s="28" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1617,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1633,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1641,7 +1678,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1665,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,7 +1710,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1718,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1706,14 +1743,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBDDC4E-2953-4FEA-B08E-FC6E1EAF3FD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="1.28515625" style="15" customWidth="1"/>
@@ -1724,7 +1761,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -1734,7 +1771,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="4"/>
@@ -1744,7 +1781,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -1755,7 +1792,7 @@
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="4"/>
@@ -1773,11 +1810,11 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>97</v>
+      <c r="C7" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -1785,8 +1822,8 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
     </row>
@@ -1797,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -1809,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -1821,7 +1858,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -1829,7 +1866,7 @@
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="4"/>
@@ -1847,11 +1884,11 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>97</v>
+      <c r="C16" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -1859,8 +1896,8 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
@@ -1871,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -1883,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -1895,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -1905,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
@@ -1914,7 +1951,7 @@
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="4"/>
@@ -1928,18 +1965,18 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>97</v>
+      <c r="C25" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="33"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E27" s="17"/>
     </row>
@@ -1958,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E28" s="17"/>
     </row>
@@ -1968,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E29" s="17"/>
     </row>
@@ -1977,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,12 +2022,12 @@
         <v>5</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="4"/>
@@ -2002,17 +2039,17 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>97</v>
+      <c r="C35" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="33"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
@@ -2020,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -2029,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
